--- a/Inward/wwwroot/uploads/New Microsoft Excel Worksheet.xlsx
+++ b/Inward/wwwroot/uploads/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6EA4EF-DE22-4610-9763-97C59026A426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D7A466-6FDC-491E-BEE7-2D27C1260E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>name</t>
   </si>
@@ -36,12 +36,6 @@
     <t>email</t>
   </si>
   <si>
-    <t>genderid</t>
-  </si>
-  <si>
-    <t>categoryid</t>
-  </si>
-  <si>
     <t>categoryname</t>
   </si>
   <si>
@@ -76,6 +70,24 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>st</t>
+  </si>
+  <si>
+    <t>ews</t>
   </si>
 </sst>
 </file>
@@ -404,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -415,10 +427,11 @@
     <col min="2" max="2" width="18.21875" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="10.77734375" customWidth="1"/>
-    <col min="8" max="8" width="14.21875" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -429,166 +442,148 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>9</v>
       </c>
       <c r="B2">
         <v>6359211356</v>
       </c>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>15619181714</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>10</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2">
-        <v>12</v>
-      </c>
-      <c r="H2">
-        <v>15619181714</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>12</v>
       </c>
       <c r="B3">
         <v>6359211357</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3">
+        <v>132</v>
+      </c>
+      <c r="G3">
+        <v>99999</v>
+      </c>
+      <c r="H3">
         <v>1</v>
       </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3">
-        <v>132</v>
-      </c>
-      <c r="H3">
-        <v>99999</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>6359211358</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4">
+        <v>132</v>
+      </c>
+      <c r="G4">
+        <v>199999</v>
+      </c>
+      <c r="H4">
         <v>1</v>
       </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4">
-        <v>132</v>
-      </c>
-      <c r="H4">
-        <v>199999</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>6359211359</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5">
+        <v>132</v>
+      </c>
+      <c r="G5">
+        <v>199999</v>
+      </c>
+      <c r="H5">
         <v>1</v>
       </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5">
-        <v>132</v>
-      </c>
-      <c r="H5">
-        <v>199999</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>6359211360</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s">
         <v>11</v>
       </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>132</v>
+      </c>
       <c r="G6">
-        <v>132</v>
+        <v>99999</v>
       </c>
       <c r="H6">
-        <v>99999</v>
-      </c>
-      <c r="I6">
         <v>1</v>
       </c>
     </row>
